--- a/flows/FTGC_fund_flow_data.xlsx
+++ b/flows/FTGC_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2605"/>
+  <dimension ref="A1:B2623"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26485,6 +26485,186 @@
         <v>-9.1792</v>
       </c>
     </row>
+    <row r="2606">
+      <c r="A2606" t="inlineStr">
+        <is>
+          <t>2024-02-21</t>
+        </is>
+      </c>
+      <c r="B2606" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2607">
+      <c r="A2607" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B2607" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2608">
+      <c r="A2608" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B2608" t="n">
+        <v>2.2976</v>
+      </c>
+    </row>
+    <row r="2609">
+      <c r="A2609" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B2609" t="n">
+        <v>-10.2375</v>
+      </c>
+    </row>
+    <row r="2610">
+      <c r="A2610" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B2610" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2611">
+      <c r="A2611" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B2611" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2612">
+      <c r="A2612" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B2612" t="n">
+        <v>-1.1524</v>
+      </c>
+    </row>
+    <row r="2613">
+      <c r="A2613" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B2613" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2614">
+      <c r="A2614" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B2614" t="n">
+        <v>-3.47295</v>
+      </c>
+    </row>
+    <row r="2615">
+      <c r="A2615" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B2615" t="n">
+        <v>-6.951</v>
+      </c>
+    </row>
+    <row r="2616">
+      <c r="A2616" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B2616" t="n">
+        <v>-9.2204</v>
+      </c>
+    </row>
+    <row r="2617">
+      <c r="A2617" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B2617" t="n">
+        <v>3.4842</v>
+      </c>
+    </row>
+    <row r="2618">
+      <c r="A2618" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B2618" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2619">
+      <c r="A2619" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B2619" t="n">
+        <v>-4.6476</v>
+      </c>
+    </row>
+    <row r="2620">
+      <c r="A2620" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B2620" t="n">
+        <v>15.1996</v>
+      </c>
+    </row>
+    <row r="2621">
+      <c r="A2621" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B2621" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2622">
+      <c r="A2622" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B2622" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2623">
+      <c r="A2623" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B2623" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
